--- a/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Atributos de Clase.xlsx
+++ b/A dog chasing cars/DanClark/CODELLIGENT/Formularios2  - Atributos de Clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\AP3\A dog chasing cars\DanClark\CODELLIGENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909972E4-0CC7-4898-9950-2768D2C19AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBAAB7-F516-4011-8C86-A2D57828B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>CLASE</t>
   </si>
@@ -46,48 +46,95 @@
     <t>TIPO</t>
   </si>
   <si>
-    <t>ListaPagosPendientes</t>
-  </si>
-  <si>
-    <t>ListaPagosCancelados</t>
-  </si>
-  <si>
-    <t>Lista&lt;T&gt;</t>
-  </si>
-  <si>
     <t>CCobro</t>
   </si>
   <si>
-    <t>CCobroNormal : CCobro</t>
-  </si>
-  <si>
-    <t>CCobroEspecial : CCobro</t>
-  </si>
-  <si>
     <t>CCliente</t>
   </si>
   <si>
-    <t>CListaClientes</t>
-  </si>
-  <si>
-    <t>Legajo</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>NombreCobro</t>
+  </si>
+  <si>
+    <t>NombreCliente</t>
+  </si>
+  <si>
+    <t>ListaCobrosPendientes</t>
+  </si>
+  <si>
+    <t>ListaCobrosCancelados</t>
+  </si>
+  <si>
+    <t>Lista&lt;CCobro&gt;</t>
+  </si>
+  <si>
+    <t>FechaVencimiento</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Código*</t>
+  </si>
+  <si>
+    <t>Legajo*</t>
+  </si>
+  <si>
+    <t>MostrarCobrosCancelados()</t>
+  </si>
+  <si>
+    <t>MostrarCobrosPendientes()</t>
+  </si>
+  <si>
+    <t>CPago : CCobro</t>
+  </si>
+  <si>
+    <t>Recargo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>ICobro</t>
+  </si>
+  <si>
+    <t>CCobroNormal : CCobro, ICobro</t>
+  </si>
+  <si>
+    <t>CCobroEspecial : CCobro, ICobro</t>
+  </si>
+  <si>
+    <t>double CalcularDiasRetraso(DateTime pDesde, DateTime pHasta)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,12 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -132,7 +182,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -141,7 +191,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,11 +207,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:C9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{37EE3755-308D-4D4C-92AD-FF467247505E}" name="Tabla1" displayName="Tabla1" ref="A1:C25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="CLASE" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ATRIBUTO" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="TIPO" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{84288417-3133-445F-96F2-F7A1B79120ED}" name="CLASE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7774DE3E-62EA-4F68-A56F-2AD8E33C5B5A}" name="ATRIBUTO" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C6A844F0-8BAE-49E5-BD83-4633698C6F7C}" name="TIPO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -433,15 +483,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,75 +506,191 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
